--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>Boite de carte arrière: 100x100x75mm, IP66-67</t>
+    <t>https://fr.farnell.com/bopla/02210000/revetement-plastique-euromas/dp/1217454</t>
   </si>
   <si>
-    <t>https://fr.farnell.com/fibox/pc-95-75hg/boitier-100x100x75-couvercle-gris/dp/1058068</t>
+    <t>Boite de carte arrière: 80x82x55mm, IP65</t>
   </si>
 </sst>
 </file>
@@ -661,29 +661,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -927,29 +927,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Composant" dataDxfId="26"/>
@@ -1857,7 +1857,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Composant" dataDxfId="10"/>
@@ -2915,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2968,19 +2968,19 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>1058068</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>1217454</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="15">
-        <v>11.97</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -2994,7 +2994,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="19">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>14.364000000000001</v>
+        <v>23.987999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3430,9 +3430,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4439,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -166,20 +166,10 @@
     <t>Boite</t>
   </si>
   <si>
-    <t>https://fr.farnell.com/multicomp/mc001097/boitier-ip65-pc-gris/dp/2544924</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lien </t>
   </si>
   <si>
     <t>Farnell</t>
-  </si>
-  <si>
-    <t>Boite de carte avant: 90x115x80mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-2544924</t>
   </si>
   <si>
     <t>Lien</t>
@@ -189,6 +179,16 @@
   </si>
   <si>
     <t>Boite de carte arrière: 80x82x55mm, IP65</t>
+  </si>
+  <si>
+    <t>Boite de carte arrière: 90x90x90mm</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/hammond/1554ee2gysl/coffret-pcb-pc-gris/dp/2469989</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+2469989 </t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2942,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
@@ -2968,16 +2968,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>1217454</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="15">
         <v>19.989999999999998</v>
@@ -3444,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
@@ -3499,19 +3499,19 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F2" s="15">
-        <v>9.2200000000000006</v>
+        <v>11.04</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -3525,7 +3525,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="19">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>11.064</v>
+        <v>13.247999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4009,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
@@ -4442,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4475,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Composant</t>
   </si>
@@ -190,6 +190,91 @@
     <t xml:space="preserve"> 
 2469989 </t>
   </si>
+  <si>
+    <r>
+      <t>100k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω, cms, package R0805</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω, cms, package R0805</t>
+    </r>
+  </si>
+  <si>
+    <t>120Ω, cms, package R0805</t>
+  </si>
+  <si>
+    <t>330Ω, cms, package R0805</t>
+  </si>
+  <si>
+    <t>1kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>4.7kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>6.8kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>18kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>27pF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>100nF, cms, package C0603</t>
+  </si>
+  <si>
+    <t>0.1µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>0.33µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>1µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>10µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>1000µF, chimique, package E25-10</t>
+  </si>
+  <si>
+    <t>Pin Connecteur blanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux entrées, package 6410-02 </t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>3 entrées, package 6410-03</t>
+  </si>
+  <si>
+    <t>6 entrées, package 6410-06</t>
+  </si>
+  <si>
+    <t>7 entrées, package 6410-07</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,13 +331,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -380,7 +485,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -438,6 +543,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3444,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3453,7 +3573,7 @@
     <col min="1" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="17" customWidth="1"/>
     <col min="7" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" style="17" customWidth="1"/>
@@ -3528,34 +3648,42 @@
         <v>13.247999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="19">
+      <c r="B3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3564,16 +3692,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3582,16 +3714,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3600,16 +3736,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3618,16 +3758,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3636,16 +3780,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3654,16 +3802,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -3672,34 +3824,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="19">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21">
+        <v>4</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="23">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3708,16 +3868,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3726,16 +3890,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3744,16 +3912,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3762,16 +3934,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3780,16 +3956,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3798,34 +3978,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="19">
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21">
+        <v>2</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -3834,16 +4026,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3852,16 +4050,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -3871,9 +4075,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A22" s="25"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3889,9 +4091,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3907,9 +4107,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3925,9 +4123,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3943,9 +4139,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4442,7 +4636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>Composant</t>
   </si>
@@ -187,10 +187,6 @@
     <t>https://fr.farnell.com/hammond/1554ee2gysl/coffret-pcb-pc-gris/dp/2469989</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-2469989 </t>
-  </si>
-  <si>
     <r>
       <t>100k</t>
     </r>
@@ -274,6 +270,129 @@
   </si>
   <si>
     <t>7 entrées, package 6410-07</t>
+  </si>
+  <si>
+    <t>Transistor MOSFET</t>
+  </si>
+  <si>
+    <t>BSS138, N-channel MOSFET</t>
+  </si>
+  <si>
+    <t>Cristal horloge</t>
+  </si>
+  <si>
+    <t>Package HC-49-SLF Crystal 16MHz, 30ppm, 2-Pin</t>
+  </si>
+  <si>
+    <t>Regulateur de tension</t>
+  </si>
+  <si>
+    <t>Low-dropout linear regulator 5V  -LM1117IMPX-5.0, Package LINEAR_SOT223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper </t>
+  </si>
+  <si>
+    <t>package JP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH 1x1, package 1x01 </t>
+  </si>
+  <si>
+    <t>PH 1x2, package 1x02</t>
+  </si>
+  <si>
+    <t>Bouton</t>
+  </si>
+  <si>
+    <t>switch button package tact_pana-evq</t>
+  </si>
+  <si>
+    <t>Contrôleur CAN</t>
+  </si>
+  <si>
+    <t>MCP2515-I_SO, package SOIC127P1030X265-18N</t>
+  </si>
+  <si>
+    <t>MCP2562-E_SN, package SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>Carte teensy</t>
+  </si>
+  <si>
+    <t>Teensy 3.2</t>
+  </si>
+  <si>
+    <t>2.2kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>10kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>100kΩ, cms, package R0805</t>
+  </si>
+  <si>
+    <t>0,1µF, cms, package C0805</t>
+  </si>
+  <si>
+    <t>1000µF, cms, package E25-10</t>
+  </si>
+  <si>
+    <t>Pins connecteur Blanc</t>
+  </si>
+  <si>
+    <t>Connecteur 2 entrées, package 6410-02</t>
+  </si>
+  <si>
+    <t>Connecteur 9 entrées, package 6410-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transistor MOSFET </t>
+  </si>
+  <si>
+    <t>BSS138 N-channel MOSFET, package SOT23</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>Régulateur de tension</t>
+  </si>
+  <si>
+    <t>Low-dropout linear regulator 5V  -LM1117IMPX-5.0, package linear SOT223</t>
+  </si>
+  <si>
+    <t>Horloge à quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> packageHC-49-SLF, Crystal 16MHz, 30ppm, 2-Pin</t>
+  </si>
+  <si>
+    <t>PH 1x1, package 1X01</t>
+  </si>
+  <si>
+    <t>PH 1x2, package 1X02</t>
+  </si>
+  <si>
+    <t>PH 1x8, package 1x08</t>
+  </si>
+  <si>
+    <t>Switch-pushbutton, package TACT_PANA-EVQ</t>
+  </si>
+  <si>
+    <t>Controleur CAN</t>
+  </si>
+  <si>
+    <t>Teensy</t>
+  </si>
+  <si>
+    <t>Carte Teensy 3.2</t>
+  </si>
+  <si>
+    <t>Nombre de Carte:</t>
   </si>
 </sst>
 </file>
@@ -340,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +478,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -479,13 +604,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -560,6 +705,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -569,7 +783,7 @@
   <dxfs count="79">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -580,13 +794,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -599,13 +811,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -618,13 +828,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -637,13 +845,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -656,13 +862,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -675,13 +879,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -694,13 +896,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -713,13 +913,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -732,13 +930,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -751,13 +947,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -768,8 +962,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -777,6 +969,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -797,13 +996,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -909,97 +1101,84 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1047,6 +1226,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1063,13 +1249,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1911,20 +2090,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K26" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="A1:K26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:K28"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="58"/>
-    <tableColumn id="2" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="56"/>
-    <tableColumn id="4" name="Référence" dataDxfId="55"/>
-    <tableColumn id="12" name="Lien" dataDxfId="54"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="52"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="51"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="50"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="49"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="26"/>
+    <tableColumn id="2" name="Description" dataDxfId="25"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="24"/>
+    <tableColumn id="4" name="Référence" dataDxfId="23"/>
+    <tableColumn id="12" name="Lien" dataDxfId="22"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="20"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="19"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="18"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="17"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1933,7 +2112,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K32"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Composant" dataDxfId="10"/>
+    <tableColumn id="2" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="8"/>
+    <tableColumn id="4" name="Référence" dataDxfId="7"/>
+    <tableColumn id="11" name="Lien " dataDxfId="6"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="5" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="4"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="3"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="1"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:K26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Composant" dataDxfId="58"/>
+    <tableColumn id="2" name="Description" dataDxfId="57"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="56"/>
+    <tableColumn id="4" name="Référence" dataDxfId="55"/>
+    <tableColumn id="11" name="Lien " dataDxfId="54"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="52"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="51"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="50"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="49"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Composant" dataDxfId="42"/>
@@ -1947,50 +2170,6 @@
     <tableColumn id="6" name="Quantité achetée" dataDxfId="34"/>
     <tableColumn id="7" name="Réduction" dataDxfId="33"/>
     <tableColumn id="8" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:K26"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="26"/>
-    <tableColumn id="2" name="Description" dataDxfId="25"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="24"/>
-    <tableColumn id="4" name="Référence" dataDxfId="23"/>
-    <tableColumn id="11" name="Lien " dataDxfId="22"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="20"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="19"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="18"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="17"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K26"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="10"/>
-    <tableColumn id="2" name="Description" dataDxfId="9"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="8"/>
-    <tableColumn id="4" name="Référence" dataDxfId="7"/>
-    <tableColumn id="11" name="Lien " dataDxfId="6"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="5" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="4"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="3"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="1"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24526[[#This Row],[Prix HT]]*1.2*Tableau24526[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2264,7 +2443,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3033,22 +3212,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="17" customWidth="1"/>
+    <col min="1" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="42" customWidth="1"/>
     <col min="7" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3058,13 +3239,13 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -3082,8 +3263,14 @@
       <c r="K1" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -3093,17 +3280,18 @@
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="26">
         <v>1217454</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="30">
         <v>19.989999999999998</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -3117,34 +3305,44 @@
         <v>23.987999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="19">
+      <c r="B3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="21">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3153,16 +3351,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3171,16 +3374,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3189,16 +3397,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="2">
+        <f>6*N1</f>
+        <v>18</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3207,16 +3420,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3225,34 +3443,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="19">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="21">
+        <f>4*N1</f>
+        <v>12</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -3261,16 +3489,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -3279,16 +3512,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3297,16 +3535,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3315,16 +3558,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3333,34 +3581,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="19">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="21">
+        <f>3*N1</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="2"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3369,34 +3627,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="19">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="21">
+        <f>4*N1</f>
+        <v>12</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3405,16 +3673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="2"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -3423,16 +3696,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3441,16 +3719,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -3459,16 +3742,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="2"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3477,16 +3765,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3495,16 +3788,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="2"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3513,38 +3811,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="19">
+    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="21">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="9"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="9">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="20">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="3">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="20">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
@@ -3562,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3573,13 +3922,17 @@
     <col min="1" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="17" customWidth="1"/>
-    <col min="7" max="10" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="9" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3613,8 +3966,14 @@
       <c r="K1" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -3624,8 +3983,8 @@
       <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
+      <c r="D2" s="2">
+        <v>2469989</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>33</v>
@@ -3634,7 +3993,8 @@
         <v>11.04</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -3648,19 +4008,20 @@
         <v>13.247999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="22"/>
       <c r="G3" s="21">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -3670,19 +4031,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="15"/>
       <c r="G4" s="2">
-        <v>4</v>
+        <f>4*N1</f>
+        <v>12</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3692,19 +4054,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="15"/>
       <c r="G5" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3714,19 +4077,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="15"/>
       <c r="G6" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3736,19 +4100,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="15"/>
       <c r="G7" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3758,19 +4123,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="15"/>
       <c r="G8" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3780,19 +4146,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="15"/>
       <c r="G9" s="2">
-        <v>16</v>
+        <f>16*N1</f>
+        <v>48</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3802,19 +4169,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
       <c r="G10" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3824,19 +4192,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
       <c r="G11" s="21">
-        <v>4</v>
+        <f>4*N1</f>
+        <v>12</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -3846,19 +4215,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
       <c r="G12" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3868,19 +4238,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="15"/>
       <c r="G13" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3890,19 +4261,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="15"/>
       <c r="G14" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3912,19 +4284,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="15"/>
       <c r="G15" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3934,19 +4307,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="15"/>
       <c r="G16" s="2">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3961,14 +4335,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="15"/>
       <c r="G17" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3980,19 +4355,20 @@
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
       <c r="G18" s="21">
-        <v>2</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -4004,19 +4380,20 @@
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="15"/>
       <c r="G19" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -4028,19 +4405,20 @@
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="15"/>
       <c r="G20" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -4052,19 +4430,20 @@
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="15"/>
       <c r="G21" s="2">
-        <v>1</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -4074,30 +4453,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="19">
+    <row r="22" spans="1:11" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="27">
+        <f>9*N1</f>
+        <v>27</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="33">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4106,14 +4499,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="35"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -4123,13 +4523,20 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -4138,18 +4545,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9">
+        <f>3*N1</f>
+        <v>9</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="20">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="39">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="37">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="37">
+        <v>5</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="39">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="20">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
@@ -4170,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -783,7 +783,7 @@
   <dxfs count="79">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -794,11 +794,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -811,11 +813,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -828,11 +832,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -845,11 +851,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -862,11 +870,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -879,11 +889,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -896,11 +908,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -913,11 +927,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -930,11 +946,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -947,11 +965,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -962,6 +982,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -969,13 +991,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -996,6 +1011,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1101,8 +1123,10 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1112,15 +1136,16 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1130,55 +1155,65 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1226,13 +1261,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1249,6 +1277,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1280,7 +1315,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1291,13 +1326,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1310,13 +1343,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1329,13 +1360,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1348,13 +1377,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1367,13 +1394,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1386,13 +1411,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1405,13 +1428,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1424,13 +1445,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1443,13 +1462,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1462,13 +1479,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1479,8 +1494,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1620,97 +1633,84 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2090,20 +2090,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K28" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A1:K28"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="26"/>
-    <tableColumn id="2" name="Description" dataDxfId="25"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="24"/>
-    <tableColumn id="4" name="Référence" dataDxfId="23"/>
-    <tableColumn id="12" name="Lien" dataDxfId="22"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="20"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="19"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="18"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="17"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="58"/>
+    <tableColumn id="2" name="Description" dataDxfId="57"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="56"/>
+    <tableColumn id="4" name="Référence" dataDxfId="55"/>
+    <tableColumn id="12" name="Lien" dataDxfId="54"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="52"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="51"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="50"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="49"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2112,8 +2112,52 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K32" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:K32"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Composant" dataDxfId="42"/>
+    <tableColumn id="2" name="Description" dataDxfId="41"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="40"/>
+    <tableColumn id="4" name="Référence" dataDxfId="39"/>
+    <tableColumn id="11" name="Lien " dataDxfId="38"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="37" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="36"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="35"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="34"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="33"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:K26"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Composant" dataDxfId="26"/>
+    <tableColumn id="2" name="Description" dataDxfId="25"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="24"/>
+    <tableColumn id="4" name="Référence" dataDxfId="23"/>
+    <tableColumn id="11" name="Lien " dataDxfId="22"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="20"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="19"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="18"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="17"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Composant" dataDxfId="10"/>
     <tableColumn id="2" name="Description" dataDxfId="9"/>
@@ -2126,50 +2170,6 @@
     <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
     <tableColumn id="7" name="Réduction" dataDxfId="1"/>
     <tableColumn id="8" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="A1:K26"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="58"/>
-    <tableColumn id="2" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="56"/>
-    <tableColumn id="4" name="Référence" dataDxfId="55"/>
-    <tableColumn id="11" name="Lien " dataDxfId="54"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="52"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="51"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="50"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="49"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A1:K26"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="42"/>
-    <tableColumn id="2" name="Description" dataDxfId="41"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="40"/>
-    <tableColumn id="4" name="Référence" dataDxfId="39"/>
-    <tableColumn id="11" name="Lien " dataDxfId="38"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="37" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="36"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="35"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="34"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="33"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24526[[#This Row],[Prix HT]]*1.2*Tableau24526[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3215,7 +3215,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
   <si>
     <t>Composant</t>
   </si>
@@ -51,79 +51,6 @@
     <t>Prix TTC</t>
   </si>
   <si>
-    <t xml:space="preserve">Résistance </t>
-  </si>
-  <si>
-    <r>
-      <t>1k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,5k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,2k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
     <t>Quantité requise</t>
   </si>
   <si>
@@ -134,30 +61,6 @@
   </si>
   <si>
     <t>Condensateur</t>
-  </si>
-  <si>
-    <t>2,2µF</t>
-  </si>
-  <si>
-    <t>10µF</t>
-  </si>
-  <si>
-    <t>200µF</t>
-  </si>
-  <si>
-    <t>Porte inverseuse</t>
-  </si>
-  <si>
-    <t>MOSFET</t>
-  </si>
-  <si>
-    <t>NPN</t>
-  </si>
-  <si>
-    <t>NE555</t>
-  </si>
-  <si>
-    <t>remplir caract</t>
   </si>
   <si>
     <t>Résistance</t>
@@ -394,6 +297,98 @@
   <si>
     <t>Nombre de Carte:</t>
   </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>1N4004 DO41-10</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>NPN TRANSISTOR</t>
+  </si>
+  <si>
+    <t>N-CHANNEL MOS FET</t>
+  </si>
+  <si>
+    <t>General purpose bipolar Timer</t>
+  </si>
+  <si>
+    <t>INVERTER Gate</t>
+  </si>
+  <si>
+    <t>100Ω  R-EU_R0805</t>
+  </si>
+  <si>
+    <t>1kΩ  R-EU_R0805</t>
+  </si>
+  <si>
+    <t>2.2kΩ  R-EU_R0805</t>
+  </si>
+  <si>
+    <t>10kΩ  R-EU_R0805</t>
+  </si>
+  <si>
+    <r>
+      <t>12k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω  R-EU_R0805</t>
+    </r>
+  </si>
+  <si>
+    <t>18kΩ  R-EU_R0805</t>
+  </si>
+  <si>
+    <t>0.01µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>0.1µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>1µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>2.2µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>20µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>2N2369  TO18</t>
+  </si>
+  <si>
+    <t>BSS138  SOT23</t>
+  </si>
+  <si>
+    <t>NE555  DIL-08</t>
+  </si>
+  <si>
+    <t>TC4S584F _ 74AHC1G04DBV SOT23-5</t>
+  </si>
+  <si>
+    <t>Nb de carte:</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/boitiers-pour-usage-general/9190395/</t>
+  </si>
+  <si>
+    <t>RS-Component</t>
+  </si>
+  <si>
+    <t>Boite de carte arrière: 80x80x43mm</t>
+  </si>
+  <si>
+    <t>919-0395</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +448,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -630,7 +632,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,6 +776,35 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -953,6 +984,36 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -965,59 +1026,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1315,7 +1327,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1326,11 +1338,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1343,11 +1357,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1360,11 +1376,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1377,11 +1395,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1394,11 +1414,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1411,11 +1433,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1428,11 +1452,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1445,11 +1471,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1462,11 +1490,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1479,11 +1509,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1494,6 +1526,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1559,7 +1593,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1570,13 +1604,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1589,13 +1621,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1608,13 +1638,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1627,8 +1655,108 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1644,109 +1772,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1886,78 +1911,84 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2071,39 +2102,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:J26" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
-  <autoFilter ref="A1:J26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J17"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Composant" dataDxfId="73"/>
-    <tableColumn id="2" name="Description" dataDxfId="72"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="71"/>
-    <tableColumn id="4" name="Référence" dataDxfId="70"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="69"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="68"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="67"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="66"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="65"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="64"/>
+    <tableColumn id="1" name="Composant" dataDxfId="9"/>
+    <tableColumn id="2" name="Description" dataDxfId="8"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="7"/>
+    <tableColumn id="4" name="Référence" dataDxfId="6"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="5"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="4"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="3"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="1"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K28" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K28" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
   <autoFilter ref="A1:K28"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="58"/>
-    <tableColumn id="2" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="56"/>
-    <tableColumn id="4" name="Référence" dataDxfId="55"/>
-    <tableColumn id="12" name="Lien" dataDxfId="54"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="52"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="51"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="50"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="49"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="73"/>
+    <tableColumn id="2" name="Description" dataDxfId="72"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="71"/>
+    <tableColumn id="4" name="Référence" dataDxfId="70"/>
+    <tableColumn id="12" name="Lien" dataDxfId="69"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="68" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="67"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="66"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="65"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="64"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="63" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2112,20 +2143,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K32" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A1:K32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K33" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+  <autoFilter ref="A1:K33"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="42"/>
-    <tableColumn id="2" name="Description" dataDxfId="41"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="40"/>
-    <tableColumn id="4" name="Référence" dataDxfId="39"/>
-    <tableColumn id="11" name="Lien " dataDxfId="38"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="37" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="36"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="35"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="34"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="33"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="57"/>
+    <tableColumn id="2" name="Description" dataDxfId="56"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="55"/>
+    <tableColumn id="4" name="Référence" dataDxfId="54"/>
+    <tableColumn id="11" name="Lien " dataDxfId="53"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="52" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="51"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="50"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="49"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="48"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="47" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2134,20 +2165,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="26"/>
-    <tableColumn id="2" name="Description" dataDxfId="25"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="24"/>
-    <tableColumn id="4" name="Référence" dataDxfId="23"/>
-    <tableColumn id="11" name="Lien " dataDxfId="22"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="20"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="19"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="18"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="17"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="41"/>
+    <tableColumn id="2" name="Description" dataDxfId="40"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="39"/>
+    <tableColumn id="4" name="Référence" dataDxfId="38"/>
+    <tableColumn id="11" name="Lien " dataDxfId="37"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="36" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="35"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="34"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="33"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="32"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="31" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2156,20 +2187,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="10"/>
-    <tableColumn id="2" name="Description" dataDxfId="9"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="8"/>
-    <tableColumn id="4" name="Référence" dataDxfId="7"/>
-    <tableColumn id="11" name="Lien " dataDxfId="6"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="5" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="4"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="3"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="1"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="25"/>
+    <tableColumn id="2" name="Description" dataDxfId="24"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="23"/>
+    <tableColumn id="4" name="Référence" dataDxfId="22"/>
+    <tableColumn id="11" name="Lien " dataDxfId="21"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="20" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="19"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="18"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="17"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="16"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="15" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24526[[#This Row],[Prix HT]]*1.2*Tableau24526[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2443,14 +2474,15 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="9" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42" x14ac:dyDescent="0.3">
@@ -2470,13 +2502,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -2484,8 +2516,12 @@
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1">
+        <v>3</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2493,17 +2529,18 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>1</v>
+      <c r="F2" s="52">
+        <f>L1*3</f>
+        <v>9</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2518,17 +2555,18 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="A3" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>2</v>
+      <c r="F3" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2543,17 +2581,18 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="A4" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="52"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
+      <c r="F4" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2568,17 +2607,18 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="A5" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="52"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>1</v>
+      <c r="F5" s="52">
+        <f>L1*2</f>
+        <v>6</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2593,17 +2633,18 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="A6" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="52"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>1</v>
+      <c r="F6" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2618,17 +2659,18 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="A7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="52"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="F7" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2643,17 +2685,18 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="A8" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="52"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="F8" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2668,17 +2711,18 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="A9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="52"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>1</v>
+      <c r="F9" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2693,17 +2737,18 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="A10" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="52"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>2</v>
+      <c r="F10" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2718,17 +2763,18 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="A11" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="52"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>1</v>
+      <c r="F11" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2743,17 +2789,18 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="A12" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="52"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>1</v>
+      <c r="F12" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2768,17 +2815,18 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="A13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="52"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1</v>
+      <c r="F13" s="52">
+        <f>L1*1</f>
+        <v>3</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2793,12 +2841,19 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="52"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="52">
+        <f>L1*1</f>
+        <v>3</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2812,12 +2867,19 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="52"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="52">
+        <f>L1*1</f>
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2831,12 +2893,19 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="52"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="52">
+        <f>L1*1</f>
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2849,17 +2918,24 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
+    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="57">
+        <f>L1*2</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2869,16 +2945,16 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2888,16 +2964,16 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2907,16 +2983,16 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2926,16 +3002,16 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2945,16 +3021,16 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2964,16 +3040,16 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2983,16 +3059,16 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3002,16 +3078,16 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3021,16 +3097,16 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3040,16 +3116,16 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3214,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3243,19 +3319,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>5</v>
@@ -3264,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="N1">
         <v>3</v>
@@ -3272,19 +3348,19 @@
     </row>
     <row r="2" spans="1:14" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D2" s="26">
         <v>1217454</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F2" s="30">
         <v>19.989999999999998</v>
@@ -3307,10 +3383,10 @@
     </row>
     <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="27"/>
@@ -3330,10 +3406,10 @@
     </row>
     <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="26"/>
@@ -3353,10 +3429,10 @@
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="26"/>
@@ -3376,10 +3452,10 @@
     </row>
     <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="26"/>
@@ -3399,10 +3475,10 @@
     </row>
     <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
@@ -3422,10 +3498,10 @@
     </row>
     <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="26"/>
@@ -3445,10 +3521,10 @@
     </row>
     <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="27"/>
@@ -3468,10 +3544,10 @@
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="26"/>
@@ -3491,10 +3567,10 @@
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="26"/>
@@ -3514,10 +3590,10 @@
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="26"/>
@@ -3537,10 +3613,10 @@
     </row>
     <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="26"/>
@@ -3560,10 +3636,10 @@
     </row>
     <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="26"/>
@@ -3583,10 +3659,10 @@
     </row>
     <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="27"/>
@@ -3606,10 +3682,10 @@
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="26"/>
@@ -3629,10 +3705,10 @@
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="27"/>
@@ -3652,10 +3728,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="26"/>
@@ -3675,10 +3751,10 @@
     </row>
     <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="26"/>
@@ -3698,10 +3774,10 @@
     </row>
     <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="26"/>
@@ -3721,10 +3797,10 @@
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="26"/>
@@ -3744,10 +3820,10 @@
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="26"/>
@@ -3767,10 +3843,10 @@
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="26"/>
@@ -3790,10 +3866,10 @@
     </row>
     <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="26"/>
@@ -3813,10 +3889,10 @@
     </row>
     <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="27"/>
@@ -3836,10 +3912,10 @@
     </row>
     <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="29"/>
@@ -3859,10 +3935,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="45"/>
@@ -3911,10 +3987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3946,19 +4022,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>5</v>
@@ -3967,107 +4043,115 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="N1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2469989</v>
+        <v>107</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="15">
-        <v>11.04</v>
+        <v>105</v>
+      </c>
+      <c r="F2" s="60">
+        <v>4.45</v>
       </c>
       <c r="G2" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="19">
+      <c r="H2" s="59">
+        <v>0</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="61">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>13.247999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2469989</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15">
+        <v>11.04</v>
+      </c>
+      <c r="G3" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="19">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="2">
-        <f>4*N1</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="19">
+      <c r="A4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="15"/>
       <c r="G5" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>4*N1</f>
+        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -4079,18 +4163,18 @@
     </row>
     <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="15"/>
       <c r="G6" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4102,18 +4186,18 @@
     </row>
     <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="15"/>
       <c r="G7" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -4125,10 +4209,10 @@
     </row>
     <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4148,18 +4232,18 @@
     </row>
     <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="15"/>
       <c r="G9" s="2">
-        <f>16*N1</f>
-        <v>48</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4171,18 +4255,18 @@
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
       <c r="G10" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>16*N1</f>
+        <v>48</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -4193,65 +4277,65 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21">
         <f>4*N1</f>
         <v>12</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23">
-        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="2">
-        <f>2*N1</f>
-        <v>6</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="19">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="15"/>
       <c r="G13" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -4263,18 +4347,18 @@
     </row>
     <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="15"/>
       <c r="G14" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4286,10 +4370,10 @@
     </row>
     <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4309,10 +4393,10 @@
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4332,18 +4416,18 @@
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="15"/>
       <c r="G17" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -4354,64 +4438,62 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21">
         <f>2*N1</f>
         <v>6</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23">
-        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="2">
-        <f>1*N1</f>
-        <v>3</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="19">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4430,13 +4512,13 @@
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4453,60 +4535,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="27">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="27">
         <f>9*N1</f>
         <v>27</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="33">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="33">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="2">
-        <f>1*N1</f>
-        <v>3</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="19">
-        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="15"/>
@@ -4522,20 +4606,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C25" s="35"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="15"/>
       <c r="G25" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4545,58 +4629,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="9">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="9">
         <f>3*N1</f>
         <v>9</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="20">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="20">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="2">
-        <f>1*N1</f>
-        <v>3</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="19">
-        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4614,101 +4698,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="37">
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="39">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="19">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="2">
+      <c r="A30" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="37">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="19">
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="39">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="37">
+    <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="37">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H32" s="37">
         <v>5</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="39">
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="39">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="20">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="20">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4750,19 +4858,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>5</v>
@@ -5216,19 +5324,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>5</v>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526516DA-FCF0-4AE5-AFD0-CDC75D241DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5724" windowHeight="6432" activeTab="2"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,23 @@
     <sheet name="Faisceau" sheetId="4" r:id="rId4"/>
     <sheet name="Tableau de Bord" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
   <si>
     <t>Composant</t>
   </si>
@@ -389,15 +396,21 @@
   <si>
     <t>919-0395</t>
   </si>
+  <si>
+    <t>USB Connecteur boîte</t>
+  </si>
+  <si>
+    <t>https://il.farnell.com/amphenol-commercial-products/musbrb55130/sealed-usb-2-0-type-mini-b-rcpt/dp/2708983</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,7 +645,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,6 +818,9 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -984,6 +1000,25 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1007,13 +1042,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1030,6 +1058,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1327,7 +1362,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1338,13 +1373,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1357,13 +1390,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1376,13 +1407,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1395,13 +1424,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1414,13 +1441,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1433,13 +1458,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1452,13 +1475,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1471,13 +1492,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1490,13 +1509,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1509,13 +1526,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1526,8 +1541,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1593,7 +1606,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1604,11 +1617,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1621,11 +1636,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1638,11 +1655,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1655,108 +1674,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1772,6 +1691,109 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1911,8 +1933,10 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1922,15 +1946,16 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1940,55 +1965,46 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2102,39 +2118,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Composant" dataDxfId="9"/>
-    <tableColumn id="2" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="7"/>
-    <tableColumn id="4" name="Référence" dataDxfId="6"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="5"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="4"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="3"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="1"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Composant" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fournisseur" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Référence" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prix HT" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Quantité requise" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantité déjà à Bron" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantité achetée" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Réduction" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Prix TTC" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K28" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
-  <autoFilter ref="A1:K28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau24" displayName="Tableau24" ref="A1:K29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="73"/>
-    <tableColumn id="2" name="Description" dataDxfId="72"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="71"/>
-    <tableColumn id="4" name="Référence" dataDxfId="70"/>
-    <tableColumn id="12" name="Lien" dataDxfId="69"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="68" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="67"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="66"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="65"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="64"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="63" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Composant" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Fournisseur" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Référence" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Lien" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Quantité requise" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Quantité déjà à Bron" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Quantité achetée" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Réduction" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2143,20 +2159,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K33" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
-  <autoFilter ref="A1:K33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau245" displayName="Tableau245" ref="A1:K34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <autoFilter ref="A1:K34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="57"/>
-    <tableColumn id="2" name="Description" dataDxfId="56"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="55"/>
-    <tableColumn id="4" name="Référence" dataDxfId="54"/>
-    <tableColumn id="11" name="Lien " dataDxfId="53"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="52" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="51"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="50"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="49"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="48"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="47" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Composant" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Fournisseur" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Référence" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Lien " dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Prix HT" dataDxfId="37" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Quantité requise" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Quantité déjà à Bron" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantité achetée" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Réduction" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2165,20 +2181,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
-  <autoFilter ref="A1:K26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="41"/>
-    <tableColumn id="2" name="Description" dataDxfId="40"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="39"/>
-    <tableColumn id="4" name="Référence" dataDxfId="38"/>
-    <tableColumn id="11" name="Lien " dataDxfId="37"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="36" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="35"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="34"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="33"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="32"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="31" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Composant" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Fournisseur" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Référence" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Lien " dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Quantité requise" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Quantité déjà à Bron" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantité achetée" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Réduction" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2187,20 +2203,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:K26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Composant" dataDxfId="25"/>
-    <tableColumn id="2" name="Description" dataDxfId="24"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="23"/>
-    <tableColumn id="4" name="Référence" dataDxfId="22"/>
-    <tableColumn id="11" name="Lien " dataDxfId="21"/>
-    <tableColumn id="5" name="Prix HT" dataDxfId="20" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" name="Quantité requise" dataDxfId="19"/>
-    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="18"/>
-    <tableColumn id="6" name="Quantité achetée" dataDxfId="17"/>
-    <tableColumn id="7" name="Réduction" dataDxfId="16"/>
-    <tableColumn id="8" name="Prix TTC" dataDxfId="15" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Composant" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Fournisseur" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Référence" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Lien " dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Prix HT" dataDxfId="5" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Quantité requise" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Quantité déjà à Bron" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quantité achetée" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Réduction" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24526[[#This Row],[Prix HT]]*1.2*Tableau24526[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2470,14 +2486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2485,7 +2501,7 @@
     <col min="4" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="31.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2544,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="54" t="s">
         <v>82</v>
       </c>
@@ -2554,7 +2570,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="54" t="s">
         <v>82</v>
       </c>
@@ -2580,7 +2596,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="54" t="s">
         <v>82</v>
       </c>
@@ -2606,7 +2622,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="54" t="s">
         <v>82</v>
       </c>
@@ -2632,7 +2648,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="54" t="s">
         <v>82</v>
       </c>
@@ -2658,7 +2674,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="54" t="s">
         <v>82</v>
       </c>
@@ -2684,7 +2700,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="54" t="s">
         <v>84</v>
       </c>
@@ -2710,7 +2726,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +2752,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="54" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +2778,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="54" t="s">
         <v>10</v>
       </c>
@@ -2788,7 +2804,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="54" t="s">
         <v>10</v>
       </c>
@@ -2814,7 +2830,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="54" t="s">
         <v>10</v>
       </c>
@@ -2840,7 +2856,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="54" t="s">
         <v>85</v>
       </c>
@@ -2866,7 +2882,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="54" t="s">
         <v>86</v>
       </c>
@@ -2892,7 +2908,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="54" t="s">
         <v>87</v>
       </c>
@@ -2918,7 +2934,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="43.2">
       <c r="A17" s="55" t="s">
         <v>88</v>
       </c>
@@ -2944,7 +2960,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -2963,7 +2979,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="58"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
@@ -2982,7 +2998,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
@@ -3001,7 +3017,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="58"/>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
@@ -3020,7 +3036,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="58"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -3039,7 +3055,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="58"/>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -3058,7 +3074,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -3077,7 +3093,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="58"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -3096,7 +3112,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="58"/>
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
@@ -3115,7 +3131,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -3133,7 +3149,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3151,7 +3167,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3169,7 +3185,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3187,7 +3203,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3205,7 +3221,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3223,7 +3239,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3241,7 +3257,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3259,7 +3275,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3287,14 +3303,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="31" customWidth="1"/>
@@ -3305,7 +3321,7 @@
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="31.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +3362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="64.2" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3372,16 +3388,14 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="19">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>23.987999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -3450,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.8">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3473,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.8">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3519,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.8">
       <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
@@ -3542,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.8">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3565,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.8">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3588,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.8">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3611,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.8">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3634,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="43.2">
       <c r="A15" s="24" t="s">
         <v>64</v>
       </c>
@@ -3680,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="43.2">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
@@ -3703,66 +3717,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:11" ht="72">
+      <c r="A17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="43.2">
+      <c r="A18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="21">
+      <c r="C18" s="21"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="21">
         <f>4*N1</f>
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23">
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="2">
-        <f>2*N1</f>
-        <v>6</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="19">
-        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="30"/>
       <c r="G19" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -3772,12 +3789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="72">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="26"/>
@@ -3795,20 +3812,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="57.6">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="30"/>
       <c r="G21" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3818,20 +3835,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="30"/>
       <c r="G22" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3841,12 +3858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="26"/>
@@ -3864,12 +3881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="26"/>
@@ -3887,113 +3904,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="21">
+    <row r="25" spans="1:11" ht="57.6">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="23">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="19">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:11" ht="57.6">
+      <c r="A26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="9">
+      <c r="B26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="21">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="20">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="57.6">
       <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="3">
+        <v>78</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="9">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="20">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="3">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="19">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="19">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="20">
+    <row r="29" spans="1:11">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="20">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E17" r:id="rId2" xr:uid="{56617018-3C46-42E9-8719-F7030BE1BFE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
@@ -4008,7 +4049,7 @@
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="31.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="43.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -4082,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="46.2" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4115,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.8">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -4138,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4161,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28.8">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4184,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4207,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.8">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4230,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.8">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4253,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="28.8">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4276,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="28.8">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.8">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -4322,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="28.8">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -4345,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -4368,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="28.8">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4391,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="28.8">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4414,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="28.8">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4460,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="A19" s="24" t="s">
         <v>35</v>
       </c>
@@ -4485,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
@@ -4510,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
@@ -4535,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
@@ -4560,60 +4601,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:11" ht="72">
+      <c r="A23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="34" customFormat="1" ht="28.8">
+      <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="27">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="27">
         <f>9*N1</f>
         <v>27</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="33">
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="33">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:11" ht="57.6">
+      <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="2">
-        <f>1*N1</f>
-        <v>3</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="19">
-        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="15"/>
@@ -4629,20 +4673,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="72">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C26" s="35"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="15"/>
       <c r="G26" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4652,58 +4696,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="2">
+        <f>2*N1</f>
+        <v>6</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="9">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="9">
         <f>3*N1</f>
         <v>9</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="20">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="20">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:11" ht="28.8">
+      <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="2">
-        <f>1*N1</f>
-        <v>3</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="19">
-        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4721,115 +4765,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="37">
+    <row r="30" spans="1:11" ht="43.2">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="39">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="19">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:11" ht="57.6">
+      <c r="A31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="2">
+      <c r="B31" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="37">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="19">
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="39">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="37">
+    <row r="32" spans="1:11" ht="57.6">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="19">
+        <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="37">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H33" s="37">
         <v>5</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="39">
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="39">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="20">
+    <row r="34" spans="1:11">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="20">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{6B824F51-33EF-4975-9F83-CFA376F44F9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -4844,7 +4912,7 @@
     <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4879,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="13"/>
@@ -4895,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4911,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4927,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4943,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4959,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4975,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4991,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5007,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5023,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5039,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5055,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5071,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5087,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5103,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5119,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5135,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5151,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5167,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5183,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5199,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5215,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5231,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5247,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5263,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="3"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5288,14 +5356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -5310,7 +5378,7 @@
     <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5345,7 +5413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="13"/>
@@ -5361,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5377,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5393,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5409,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5425,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5441,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5457,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5473,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5489,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5505,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5521,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5537,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5553,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5569,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5585,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5601,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5617,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5633,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5649,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5665,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5681,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5697,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5713,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5729,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="3"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526516DA-FCF0-4AE5-AFD0-CDC75D241DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,9 @@
     <sheet name="Carte arrière" sheetId="3" r:id="rId3"/>
     <sheet name="Faisceau" sheetId="4" r:id="rId4"/>
     <sheet name="Tableau de Bord" sheetId="5" r:id="rId5"/>
+    <sheet name="Composant" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
   <si>
     <t>Composant</t>
   </si>
@@ -406,11 +406,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +645,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,6 +821,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2118,39 +2124,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
-  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="A1:J17"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Composant" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fournisseur" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Référence" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Prix HT" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Quantité requise" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantité déjà à Bron" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantité achetée" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Réduction" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Prix TTC" dataDxfId="64"/>
+    <tableColumn id="1" name="Composant" dataDxfId="73"/>
+    <tableColumn id="2" name="Description" dataDxfId="72"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="71"/>
+    <tableColumn id="4" name="Référence" dataDxfId="70"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="69"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="68"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="67"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="66"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="65"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau24" displayName="Tableau24" ref="A1:K29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau24" displayName="Tableau24" ref="A1:K30" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:K30"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Composant" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Fournisseur" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Référence" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Lien" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Quantité requise" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Quantité déjà à Bron" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Quantité achetée" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Réduction" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="58"/>
+    <tableColumn id="2" name="Description" dataDxfId="57"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="56"/>
+    <tableColumn id="4" name="Référence" dataDxfId="55"/>
+    <tableColumn id="12" name="Lien" dataDxfId="54"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="53" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="52"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="51"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="50"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="49"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="48" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2159,20 +2165,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau245" displayName="Tableau245" ref="A1:K34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A1:K34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau245" displayName="Tableau245" ref="A1:K34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <autoFilter ref="A1:K34"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Composant" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Fournisseur" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Référence" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Lien " dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Prix HT" dataDxfId="37" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Quantité requise" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Quantité déjà à Bron" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantité achetée" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Réduction" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="42"/>
+    <tableColumn id="2" name="Description" dataDxfId="41"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="40"/>
+    <tableColumn id="4" name="Référence" dataDxfId="39"/>
+    <tableColumn id="11" name="Lien " dataDxfId="38"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="37" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="36"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="35"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="34"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="33"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="32" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2181,20 +2187,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2452" displayName="Tableau2452" ref="A1:K26" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Composant" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Fournisseur" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Référence" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Lien " dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Quantité requise" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Quantité déjà à Bron" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantité achetée" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Réduction" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="26"/>
+    <tableColumn id="2" name="Description" dataDxfId="25"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="24"/>
+    <tableColumn id="4" name="Référence" dataDxfId="23"/>
+    <tableColumn id="11" name="Lien " dataDxfId="22"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="21" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="20"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="19"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="18"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="17"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="16" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau2452[[#This Row],[Prix HT]]*1.2*Tableau2452[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2203,20 +2209,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau24526" displayName="Tableau24526" ref="A1:K26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K26"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Composant" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Fournisseur" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Référence" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Lien " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Prix HT" dataDxfId="5" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Quantité requise" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Quantité déjà à Bron" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quantité achetée" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Réduction" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
+    <tableColumn id="1" name="Composant" dataDxfId="10"/>
+    <tableColumn id="2" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="8"/>
+    <tableColumn id="4" name="Référence" dataDxfId="7"/>
+    <tableColumn id="11" name="Lien " dataDxfId="6"/>
+    <tableColumn id="5" name="Prix HT" dataDxfId="5" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" name="Quantité requise" dataDxfId="4"/>
+    <tableColumn id="10" name="Quantité déjà à Bron" dataDxfId="3"/>
+    <tableColumn id="6" name="Quantité achetée" dataDxfId="2"/>
+    <tableColumn id="7" name="Réduction" dataDxfId="1"/>
+    <tableColumn id="8" name="Prix TTC" dataDxfId="0" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau24526[[#This Row],[Prix HT]]*1.2*Tableau24526[[#This Row],[Quantité achetée]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2486,14 +2492,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2501,7 +2507,7 @@
     <col min="4" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.2">
+    <row r="1" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2550,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>82</v>
       </c>
@@ -2570,7 +2576,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>82</v>
       </c>
@@ -2596,7 +2602,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>82</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>82</v>
       </c>
@@ -2648,7 +2654,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>82</v>
       </c>
@@ -2674,7 +2680,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
         <v>82</v>
       </c>
@@ -2700,7 +2706,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>84</v>
       </c>
@@ -2726,7 +2732,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2758,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>10</v>
       </c>
@@ -2778,7 +2784,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2810,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
         <v>10</v>
       </c>
@@ -2830,7 +2836,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +2862,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>85</v>
       </c>
@@ -2882,7 +2888,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>86</v>
       </c>
@@ -2908,7 +2914,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>87</v>
       </c>
@@ -2934,7 +2940,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="43.2">
+    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>88</v>
       </c>
@@ -2960,7 +2966,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -2979,7 +2985,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
@@ -2998,7 +3004,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
@@ -3017,7 +3023,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
@@ -3036,7 +3042,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -3055,7 +3061,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -3074,7 +3080,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -3093,7 +3099,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -3112,7 +3118,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
@@ -3131,7 +3137,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -3149,7 +3155,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3167,7 +3173,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3185,7 +3191,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3203,7 +3209,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3221,7 +3227,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3239,7 +3245,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3257,7 +3263,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3275,7 +3281,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3303,25 +3309,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="42" customWidth="1"/>
     <col min="7" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" style="17" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.2">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="64.2" customHeight="1">
+    <row r="2" spans="1:14" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3395,58 +3401,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="21">
+      <c r="C4" s="21"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="21">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="2">
-        <f>2*N1</f>
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="19">
-        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.8">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="26"/>
@@ -3464,12 +3463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
+      <c r="B6" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="26"/>
@@ -3487,20 +3486,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="30"/>
       <c r="G7" s="2">
-        <f>6*N1</f>
-        <v>18</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3510,20 +3509,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="30"/>
       <c r="G8" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>6*N1</f>
+        <v>18</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3533,66 +3532,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="21">
+      <c r="C10" s="21"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="21">
         <f>4*N1</f>
         <v>12</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="23">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="2">
-        <f>2*N1</f>
-        <v>6</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="19">
-        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.8">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="30"/>
       <c r="G11" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3602,20 +3601,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="30"/>
       <c r="G12" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3625,12 +3624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="26"/>
@@ -3648,20 +3647,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="30"/>
       <c r="G14" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3671,138 +3670,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="21">
+      <c r="C16" s="21"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="21">
         <f>3*N1</f>
         <v>9</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="19">
-        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="72">
-      <c r="A17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="19">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="43.2">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="21">
+      <c r="C19" s="21"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="21">
         <f>4*N1</f>
         <v>12</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="2">
-        <f>2*N1</f>
-        <v>6</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="19">
-        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="72">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="30"/>
       <c r="G20" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -3812,12 +3811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="57.6">
+    <row r="21" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="26"/>
@@ -3835,20 +3834,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="30"/>
       <c r="G22" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>1*N1</f>
+        <v>3</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3858,20 +3857,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="30"/>
       <c r="G23" s="2">
-        <f>1*N1</f>
-        <v>3</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -3881,12 +3880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="26"/>
@@ -3904,12 +3903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="57.6">
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="26"/>
@@ -3927,97 +3926,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="57.6">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="2">
+        <f>1*N1</f>
+        <v>3</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="19">
+        <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="21">
+      <c r="C27" s="21"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="21">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="23">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="57.6">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="9">
+      <c r="C28" s="9"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="9">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="20">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="20">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="3">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="19">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="19">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="20">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="20">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{56617018-3C46-42E9-8719-F7030BE1BFE1}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4027,14 +4049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
@@ -4049,7 +4071,7 @@
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.2">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="43.2">
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -4123,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="46.2" customHeight="1">
+    <row r="3" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4156,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -4179,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4202,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8">
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4225,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4248,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4271,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4294,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4317,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4340,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -4409,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.8">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4432,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.8">
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4455,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -4478,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4501,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
@@ -4551,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
@@ -4576,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
@@ -4601,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="72">
+    <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
@@ -4627,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="34" customFormat="1" ht="28.8">
+    <row r="24" spans="1:11" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
@@ -4650,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="57.6">
+    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -4673,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="72">
+    <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -4696,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -4719,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.8">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -4742,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8">
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -4765,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.2">
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -4788,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="57.6">
+    <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>54</v>
       </c>
@@ -4811,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="57.6">
+    <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -4834,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>57</v>
       </c>
@@ -4859,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4877,9 +4899,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{6B824F51-33EF-4975-9F83-CFA376F44F9B}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -4890,14 +4912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -4912,7 +4934,7 @@
     <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2">
+    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4947,7 +4969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="13"/>
@@ -4963,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4979,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4995,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5011,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5027,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5043,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5059,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5075,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5091,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5107,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5123,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5139,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5155,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5171,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5187,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5203,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5219,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5235,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5251,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5267,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5283,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5299,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5315,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5331,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5356,14 +5378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -5378,7 +5400,7 @@
     <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2">
+    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5413,7 +5435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="13"/>
@@ -5429,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5445,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5461,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5477,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5493,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5509,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5525,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5541,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5557,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5573,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5589,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5605,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5621,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5637,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5653,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5669,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5685,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5701,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5717,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5733,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5749,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5765,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5781,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5797,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5819,4 +5841,330 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="27">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="26">
+        <v>6</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="26">
+        <v>6</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="26">
+        <v>6</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="26">
+        <v>18</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="26">
+        <v>3</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="27">
+        <v>12</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="26">
+        <v>6</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="26">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="26">
+        <v>6</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="26">
+        <v>6</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="26">
+        <v>3</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="27">
+        <v>9</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="26">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="63">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="27">
+        <v>12</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="26">
+        <v>6</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="26">
+        <v>3</v>
+      </c>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="26">
+        <v>3</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="26">
+        <v>6</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="26">
+        <v>3</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="26">
+        <v>3</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="29">
+        <v>3</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="63">
+        <v>3</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="D30" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Carte arrière" sheetId="3" r:id="rId3"/>
     <sheet name="Faisceau" sheetId="4" r:id="rId4"/>
     <sheet name="Tableau de Bord" sheetId="5" r:id="rId5"/>
-    <sheet name="Composant" sheetId="6" r:id="rId6"/>
+    <sheet name="Quant. Composant" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>Composant</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Pin Connecteur blanc</t>
   </si>
   <si>
-    <t xml:space="preserve">Deux entrées, package 6410-02 </t>
-  </si>
-  <si>
     <t>Molex</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>2.2µF C-EUC0805</t>
   </si>
   <si>
-    <t>20µF C-EUC0805</t>
-  </si>
-  <si>
     <t>2N2369  TO18</t>
   </si>
   <si>
@@ -401,6 +395,57 @@
   </si>
   <si>
     <t>https://il.farnell.com/amphenol-commercial-products/musbrb55130/sealed-usb-2-0-type-mini-b-rcpt/dp/2708983</t>
+  </si>
+  <si>
+    <t>Carte Av</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Carte Arr</t>
+  </si>
+  <si>
+    <t>Tdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faisceau </t>
+  </si>
+  <si>
+    <t>Quant possédé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 entrées, package 6410-02 </t>
+  </si>
+  <si>
+    <t>Connecteur usb boite</t>
+  </si>
+  <si>
+    <t>Jumper package JP2</t>
+  </si>
+  <si>
+    <t>150µF C-EUC0805</t>
+  </si>
+  <si>
+    <t>diode 1N4004 DO41-10</t>
+  </si>
+  <si>
+    <t>NPN 2N2369  TO18</t>
+  </si>
+  <si>
+    <t>Inv gate TC4S584F _ 74AHC1G04DBV SOT23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led Rouge </t>
+  </si>
+  <si>
+    <t>Led Bleu</t>
+  </si>
+  <si>
+    <t>10nF C-EUC0805</t>
+  </si>
+  <si>
+    <t>Quant. Totale requise</t>
   </si>
 </sst>
 </file>
@@ -410,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +518,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -500,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -639,13 +692,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,11 +993,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2496,15 +2727,16 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="9" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42" x14ac:dyDescent="0.3">
@@ -2539,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1">
         <v>3</v>
@@ -2552,10 +2784,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="51"/>
@@ -2578,10 +2810,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="2"/>
@@ -2604,10 +2836,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="2"/>
@@ -2630,10 +2862,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="2"/>
@@ -2656,10 +2888,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="2"/>
@@ -2682,10 +2914,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="2"/>
@@ -2708,10 +2940,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="2"/>
@@ -2737,7 +2969,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="2"/>
@@ -2763,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="2"/>
@@ -2789,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="2"/>
@@ -2815,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="2"/>
@@ -2841,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="2"/>
@@ -2864,10 +3096,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="2"/>
@@ -2890,10 +3122,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="2"/>
@@ -2916,10 +3148,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="2"/>
@@ -2942,10 +3174,10 @@
     </row>
     <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="9"/>
@@ -3312,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,7 +3594,7 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1">
         <v>3</v>
@@ -3491,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
@@ -3514,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="26"/>
@@ -3537,7 +3769,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="26"/>
@@ -3606,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="26"/>
@@ -3675,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="26"/>
@@ -3695,10 +3927,10 @@
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="27"/>
@@ -3718,10 +3950,10 @@
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="26"/>
@@ -3739,9 +3971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -3749,7 +3981,7 @@
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="3">
@@ -3767,10 +3999,10 @@
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="27"/>
@@ -3790,10 +4022,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="26"/>
@@ -3813,10 +4045,10 @@
     </row>
     <row r="21" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="26"/>
@@ -3836,10 +4068,10 @@
     </row>
     <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="26"/>
@@ -3859,10 +4091,10 @@
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="26"/>
@@ -3882,10 +4114,10 @@
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="26"/>
@@ -3905,10 +4137,10 @@
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="26"/>
@@ -3928,10 +4160,10 @@
     </row>
     <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="26"/>
@@ -3951,10 +4183,10 @@
     </row>
     <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="27"/>
@@ -3974,10 +4206,10 @@
     </row>
     <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="29"/>
@@ -3997,10 +4229,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="45"/>
@@ -4053,7 +4285,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1">
         <v>3</v>
@@ -4117,16 +4349,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>108</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="60">
         <v>4.45</v>
@@ -4298,15 +4530,15 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="15"/>
       <c r="G9" s="2">
-        <f>2*N1</f>
-        <v>6</v>
+        <f>16*N1</f>
+        <v>48</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4321,15 +4553,15 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
       <c r="G10" s="2">
-        <f>16*N1</f>
-        <v>48</v>
+        <f>2*N1</f>
+        <v>6</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -4528,10 +4760,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -4553,10 +4785,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4578,10 +4810,10 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4603,10 +4835,10 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4625,7 +4857,7 @@
     </row>
     <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -4633,7 +4865,7 @@
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="3">
@@ -4651,10 +4883,10 @@
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4674,10 +4906,10 @@
     </row>
     <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4697,10 +4929,10 @@
     </row>
     <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="2"/>
@@ -4720,10 +4952,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4743,10 +4975,10 @@
     </row>
     <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4766,10 +4998,10 @@
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4789,10 +5021,10 @@
     </row>
     <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4812,10 +5044,10 @@
     </row>
     <row r="31" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4835,10 +5067,10 @@
     </row>
     <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4858,10 +5090,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>58</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -5382,7 +5614,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5436,7 +5668,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13"/>
       <c r="D2" s="2"/>
@@ -5452,7 +5686,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5845,326 +6081,973 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="78">
+        <v>9</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83">
+        <f>SUM(B2:F2)-G2</f>
+        <v>9</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="66"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79">
+        <v>3</v>
+      </c>
+      <c r="D3" s="79">
+        <v>3</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79">
+        <v>0</v>
+      </c>
+      <c r="H3" s="84">
+        <f>SUM(B3:F3)-G3</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79">
         <v>6</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="D4" s="79">
+        <v>12</v>
+      </c>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79">
+        <v>0</v>
+      </c>
+      <c r="H4" s="84">
+        <f>SUM(B4:F4)-G4</f>
+        <v>18</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B5" s="79">
+        <v>3</v>
+      </c>
+      <c r="C5" s="79">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D5" s="79">
+        <v>6</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79">
+        <v>0</v>
+      </c>
+      <c r="H5" s="84">
+        <f>SUM(B5:F5)-G5</f>
+        <v>15</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="79">
+        <v>3</v>
+      </c>
+      <c r="C6" s="79">
+        <v>6</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79">
+        <v>0</v>
+      </c>
+      <c r="H6" s="84">
+        <f>SUM(B6:F6)-G6</f>
+        <v>9</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79">
+        <v>3</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79">
+        <v>0</v>
+      </c>
+      <c r="H7" s="84">
+        <f>SUM(B7:F7)-G7</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79">
+        <v>6</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79">
+        <v>0</v>
+      </c>
+      <c r="H8" s="84">
+        <f>SUM(B8:F8)-G8</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="65"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="79">
+        <v>3</v>
+      </c>
+      <c r="C9" s="79">
+        <v>18</v>
+      </c>
+      <c r="D9" s="79">
+        <v>48</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79">
+        <v>0</v>
+      </c>
+      <c r="H9" s="84">
+        <f>SUM(B9:F9)-G9</f>
+        <v>69</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="79">
+        <v>3</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79">
+        <v>0</v>
+      </c>
+      <c r="H10" s="84">
+        <f>SUM(B10:F10)-G10</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="79">
+        <v>3</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79">
+        <v>6</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79">
+        <v>0</v>
+      </c>
+      <c r="H11" s="84">
+        <f>SUM(B11:F11)-G11</f>
+        <v>9</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79">
+        <v>3</v>
+      </c>
+      <c r="D12" s="79">
+        <v>3</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79">
+        <v>0</v>
+      </c>
+      <c r="H12" s="84">
+        <f>SUM(B12:F12)-G12</f>
+        <v>6</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79">
+        <v>12</v>
+      </c>
+      <c r="D13" s="79">
+        <v>12</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79">
+        <v>0</v>
+      </c>
+      <c r="H13" s="84">
+        <f>SUM(B13:F13)-G13</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="I13" s="66"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="79">
+        <v>3</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79">
+        <v>0</v>
+      </c>
+      <c r="H14" s="84">
+        <f>SUM(B14:F14)-G14</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="68"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79">
         <v>6</v>
       </c>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="D5" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="D6" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="26">
-        <v>18</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="D15" s="79">
+        <v>6</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79">
+        <v>0</v>
+      </c>
+      <c r="H15" s="84">
+        <f>SUM(B15:F15)-G15</f>
+        <v>12</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="79">
+        <v>3</v>
+      </c>
+      <c r="C16" s="79">
+        <v>3</v>
+      </c>
+      <c r="D16" s="79">
+        <v>3</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79">
+        <v>0</v>
+      </c>
+      <c r="H16" s="84">
+        <f>SUM(B16:F16)-G16</f>
+        <v>9</v>
+      </c>
+      <c r="I16" s="65"/>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79">
+        <v>6</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79">
+        <v>0</v>
+      </c>
+      <c r="H17" s="84">
+        <f>SUM(B17:F17)-G17</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="64"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="79">
+        <v>3</v>
+      </c>
+      <c r="C18" s="79">
+        <v>6</v>
+      </c>
+      <c r="D18" s="79">
+        <v>6</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79">
+        <v>0</v>
+      </c>
+      <c r="H18" s="84">
+        <f>SUM(B18:F18)-G18</f>
+        <v>15</v>
+      </c>
+      <c r="I18" s="67"/>
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="79">
+        <v>3</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79">
+        <v>0</v>
+      </c>
+      <c r="H19" s="84">
+        <f>SUM(B19:F19)-G19</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79">
+        <v>6</v>
+      </c>
+      <c r="D20" s="79">
+        <v>6</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79">
+        <v>0</v>
+      </c>
+      <c r="H20" s="84">
+        <f>SUM(B20:F20)-G20</f>
+        <v>12</v>
+      </c>
+      <c r="I20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="79">
+        <v>3</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79">
+        <v>0</v>
+      </c>
+      <c r="H21" s="84">
+        <f>SUM(B21:F21)-G21</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79">
+        <v>3</v>
+      </c>
+      <c r="D22" s="79">
+        <v>3</v>
+      </c>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79">
+        <v>0</v>
+      </c>
+      <c r="H22" s="84">
+        <f>SUM(B22:F22)-G22</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="79">
+        <v>3</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79">
+        <v>0</v>
+      </c>
+      <c r="H23" s="84">
+        <f>SUM(B23:F23)-G23</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79">
+        <v>9</v>
+      </c>
+      <c r="D24" s="79">
+        <v>6</v>
+      </c>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79">
+        <v>0</v>
+      </c>
+      <c r="H24" s="84">
+        <f>SUM(B24:F24)-G24</f>
+        <v>15</v>
+      </c>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79">
+        <v>3</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79">
+        <v>0</v>
+      </c>
+      <c r="H25" s="84">
+        <f>SUM(B25:F25)-G25</f>
+        <v>3</v>
+      </c>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79">
+        <v>3</v>
+      </c>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79">
+        <v>0</v>
+      </c>
+      <c r="H26" s="84">
+        <f>SUM(B26:F26)-G26</f>
+        <v>3</v>
+      </c>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79">
+        <v>3</v>
+      </c>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79">
+        <v>0</v>
+      </c>
+      <c r="H27" s="84">
+        <f>SUM(B27:F27)-G27</f>
+        <v>3</v>
+      </c>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79">
+        <v>3</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79">
+        <v>0</v>
+      </c>
+      <c r="H28" s="84">
+        <f>SUM(B28:F28)-G28</f>
+        <v>3</v>
+      </c>
+      <c r="I28" s="64"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79">
+        <v>1</v>
+      </c>
+      <c r="D29" s="79">
+        <v>1</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79">
+        <v>0</v>
+      </c>
+      <c r="H29" s="84">
+        <f>SUM(B29:F29)-G29</f>
+        <v>2</v>
+      </c>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="79">
+        <v>3</v>
+      </c>
+      <c r="C30" s="79">
+        <v>12</v>
+      </c>
+      <c r="D30" s="79">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="26">
-        <v>3</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="27">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79">
+        <v>0</v>
+      </c>
+      <c r="H30" s="84">
+        <f>SUM(B30:F30)-G30</f>
+        <v>42</v>
+      </c>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="79">
+        <v>3</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79">
+        <v>0</v>
+      </c>
+      <c r="H31" s="84">
+        <f>SUM(B31:F31)-G31</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="79">
+        <v>3</v>
+      </c>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79">
+        <v>0</v>
+      </c>
+      <c r="H32" s="84">
+        <f>SUM(B32:F32)-G32</f>
+        <v>3</v>
+      </c>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="79">
+        <v>6</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79">
+        <v>0</v>
+      </c>
+      <c r="H33" s="84">
+        <f>SUM(B33:F33)-G33</f>
+        <v>6</v>
+      </c>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79">
+        <v>6</v>
+      </c>
+      <c r="D34" s="79">
+        <v>6</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79">
+        <v>0</v>
+      </c>
+      <c r="H34" s="84">
+        <f>SUM(B34:F34)-G34</f>
         <v>12</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="26">
+    </row>
+    <row r="35" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79">
+        <v>3</v>
+      </c>
+      <c r="D35" s="79">
+        <v>3</v>
+      </c>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79">
+        <v>0</v>
+      </c>
+      <c r="H35" s="84">
+        <f>SUM(B35:F35)-G35</f>
         <v>6</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="26">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="26">
+    </row>
+    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79">
+        <v>3</v>
+      </c>
+      <c r="D36" s="79">
+        <v>3</v>
+      </c>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79">
+        <v>0</v>
+      </c>
+      <c r="H36" s="84">
+        <f>SUM(B36:F36)-G36</f>
         <v>6</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="26">
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="81">
         <v>6</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="26">
-        <v>3</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="27">
+      <c r="D37" s="79">
         <v>9</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="26">
-        <v>3</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="63">
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79">
+        <v>0</v>
+      </c>
+      <c r="H37" s="84">
+        <f>SUM(B37:F37)-G37</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="81">
+        <v>3</v>
+      </c>
+      <c r="D38" s="79">
+        <v>3</v>
+      </c>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79">
+        <v>0</v>
+      </c>
+      <c r="H38" s="84">
+        <f>SUM(B38:F38)-G38</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="81">
+        <v>3</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79">
+        <v>0</v>
+      </c>
+      <c r="H39" s="84">
+        <f>SUM(B39:F39)-G39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="81">
+        <v>3</v>
+      </c>
+      <c r="D40" s="79">
+        <v>3</v>
+      </c>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79">
+        <v>0</v>
+      </c>
+      <c r="H40" s="84">
+        <f>SUM(B40:F40)-G40</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="81">
+        <v>3</v>
+      </c>
+      <c r="D41" s="79">
+        <v>3</v>
+      </c>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79">
+        <v>0</v>
+      </c>
+      <c r="H41" s="84">
+        <f>SUM(B41:F41)-G41</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="81">
+        <v>3</v>
+      </c>
+      <c r="D42" s="79">
+        <v>3</v>
+      </c>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79">
+        <v>0</v>
+      </c>
+      <c r="H42" s="84">
+        <f>SUM(B42:F42)-G42</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="82">
+        <v>3</v>
+      </c>
+      <c r="D43" s="80">
+        <v>3</v>
+      </c>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80">
+        <v>5</v>
+      </c>
+      <c r="H43" s="85">
+        <f>SUM(B43:F43)-G43</f>
         <v>1</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="27">
-        <v>12</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="26">
-        <v>6</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="26">
-        <v>3</v>
-      </c>
-      <c r="D21" s="26"/>
-    </row>
-    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="26">
-        <v>3</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="26">
-        <v>6</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="26">
-        <v>3</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="26">
-        <v>3</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="26">
-        <v>3</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="27">
-        <v>3</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="29">
-        <v>3</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="63">
-        <v>3</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="D30" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="64" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Tableau de Bord" sheetId="5" r:id="rId5"/>
     <sheet name="Quant. Composant" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="133">
   <si>
     <t>Composant</t>
   </si>
@@ -323,9 +323,6 @@
     <t>INVERTER Gate</t>
   </si>
   <si>
-    <t>100Ω  R-EU_R0805</t>
-  </si>
-  <si>
     <t>1kΩ  R-EU_R0805</t>
   </si>
   <si>
@@ -447,6 +444,30 @@
   <si>
     <t>Quant. Totale requise</t>
   </si>
+  <si>
+    <t>https://fr.farnell.com/panasonic/eeeftv151xap/condensateur-150-f-35v-radial/dp/1868418</t>
+  </si>
+  <si>
+    <t>120Ω  R-EU_R0805</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w08055120r/res-couche-epaisse-120r-5-0-1w/dp/9333819</t>
+  </si>
+  <si>
+    <t>0,057 les 10</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w08051330r/res-couche-epaisse-330r-1-0-1w/dp/9333037</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w080551k/res-couche-epaisse-1k-5-0-1w-0805/dp/9333711</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/multicomp/mc01w080512k2/res-couche-epaisse-2-2k-1-0-1w/dp/9332812</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/panasonic/erj6rbd4701v/res-couche-epaisse-4-7k-0-5-0/dp/2380397RL</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +547,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -553,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -779,17 +806,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -817,7 +833,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,20 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,9 +1015,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,9 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,8 +1051,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1064,7 +1087,7 @@
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="80">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2096,7 +2119,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2107,13 +2130,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2126,13 +2147,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2145,13 +2164,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2164,13 +2181,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2183,13 +2198,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2202,13 +2215,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2221,13 +2232,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2240,13 +2249,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2259,13 +2266,28 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -2276,8 +2298,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2355,12 +2375,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
-  <autoFilter ref="A1:J17"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Composant" dataDxfId="73"/>
-    <tableColumn id="2" name="Description" dataDxfId="72"/>
-    <tableColumn id="3" name="Fournisseur" dataDxfId="71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:K17" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A1:K17"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Composant" dataDxfId="74"/>
+    <tableColumn id="2" name="Description" dataDxfId="73"/>
+    <tableColumn id="3" name="Fournisseur" dataDxfId="72"/>
+    <tableColumn id="11" name="Lien" dataDxfId="71"/>
     <tableColumn id="4" name="Référence" dataDxfId="70"/>
     <tableColumn id="5" name="Prix HT" dataDxfId="69"/>
     <tableColumn id="9" name="Quantité requise" dataDxfId="68"/>
@@ -2724,22 +2745,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2750,644 +2770,677 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="1">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="52">
-        <f>L1*3</f>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="77">
+        <f>M1*3</f>
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="52">
-        <f>L1*2</f>
+      <c r="F5" s="2"/>
+      <c r="G5" s="77">
+        <f>M1*2</f>
         <v>6</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="52">
-        <f>L1*1</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="77">
+        <f>M1*1</f>
+        <v>3</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="57">
-        <f>L1*2</f>
+      <c r="F17" s="9"/>
+      <c r="G17" s="78">
+        <f>M1*2</f>
         <v>6</v>
       </c>
-      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3404,8 +3457,9 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3422,8 +3476,9 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3440,8 +3495,9 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3458,8 +3514,9 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3476,8 +3533,9 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3494,8 +3552,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3512,8 +3571,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3530,6 +3590,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3544,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3636,7 +3697,9 @@
     <row r="3" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="45"/>
       <c r="E3" s="28"/>
       <c r="F3" s="47"/>
@@ -3649,17 +3712,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="80">
+        <v>9333819</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="G4" s="21">
         <f>1*N1</f>
         <v>3</v>
@@ -3667,9 +3738,9 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="23">
+      <c r="K4" s="23" t="e">
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3973,7 +4044,7 @@
     </row>
     <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -3981,7 +4052,7 @@
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="3">
@@ -4272,10 +4343,12 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E18" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4284,7 +4357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4349,30 +4422,30 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="60">
+        <v>102</v>
+      </c>
+      <c r="F2" s="54">
         <v>4.45</v>
       </c>
       <c r="G2" s="2">
         <f>1*N1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="59">
-        <v>0</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="61">
+      <c r="H2" s="53">
+        <v>0</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55">
         <f>Tableau245[[#This Row],[Prix HT]]*1.2*Tableau245[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
@@ -4760,7 +4833,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>36</v>
@@ -4857,15 +4930,15 @@
     </row>
     <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="62" t="s">
-        <v>108</v>
+      <c r="E23" s="56" t="s">
+        <v>107</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="3">
@@ -5669,7 +5742,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="13"/>
@@ -5687,7 +5760,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6081,10 +6154,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6093,956 +6166,1045 @@
     <col min="2" max="2" width="7.21875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="70" t="s">
+      <c r="E1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="F1" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="G1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="78">
+      <c r="J1" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="71">
         <v>9</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78">
-        <v>0</v>
-      </c>
-      <c r="H2" s="83">
-        <f>SUM(B2:F2)-G2</f>
+      <c r="C2" s="71">
+        <v>3</v>
+      </c>
+      <c r="D2" s="71">
+        <v>3</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="71">
+        <v>0</v>
+      </c>
+      <c r="J2" s="75">
+        <f>SUM(B2:H2)-I2</f>
+        <v>15</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71">
+        <v>6</v>
+      </c>
+      <c r="D3" s="71">
+        <v>12</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="71">
+        <v>0</v>
+      </c>
+      <c r="J3" s="75">
+        <f>SUM(B3:H3)-I3</f>
+        <v>18</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="71">
+        <v>3</v>
+      </c>
+      <c r="C4" s="71">
+        <v>6</v>
+      </c>
+      <c r="D4" s="71">
+        <v>6</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="71">
+        <v>0</v>
+      </c>
+      <c r="J4" s="75">
+        <f>SUM(B4:H4)-I4</f>
+        <v>15</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="71">
+        <v>3</v>
+      </c>
+      <c r="C5" s="71">
+        <v>6</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="71">
+        <v>0</v>
+      </c>
+      <c r="J5" s="75">
+        <f>SUM(B5:H5)-I5</f>
         <v>9</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79">
-        <v>3</v>
-      </c>
-      <c r="D3" s="79">
-        <v>3</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79">
-        <v>0</v>
-      </c>
-      <c r="H3" s="84">
-        <f>SUM(B3:F3)-G3</f>
+      <c r="K5" s="60"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="60"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71">
+        <v>3</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="71">
+        <v>0</v>
+      </c>
+      <c r="J6" s="75">
+        <f>SUM(B6:H6)-I6</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="60"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71">
         <v>6</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="71">
+        <v>0</v>
+      </c>
+      <c r="J7" s="75">
+        <f>SUM(B7:H7)-I7</f>
         <v>6</v>
       </c>
-      <c r="D4" s="79">
+      <c r="K7" s="59"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="71">
+        <v>3</v>
+      </c>
+      <c r="C8" s="71">
+        <v>18</v>
+      </c>
+      <c r="D8" s="71">
+        <v>48</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="71">
+        <v>0</v>
+      </c>
+      <c r="J8" s="75">
+        <f>SUM(B8:H8)-I8</f>
+        <v>69</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="71">
+        <v>3</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="71">
+        <v>0</v>
+      </c>
+      <c r="J9" s="75">
+        <f>SUM(B9:H9)-I9</f>
+        <v>3</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="59"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="71">
+        <v>3</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71">
+        <v>6</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="71">
+        <v>0</v>
+      </c>
+      <c r="J10" s="75">
+        <f>SUM(B10:H10)-I10</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71">
+        <v>3</v>
+      </c>
+      <c r="D11" s="71">
+        <v>3</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="71">
+        <v>0</v>
+      </c>
+      <c r="J11" s="75">
+        <f>SUM(B11:H11)-I11</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71">
         <v>12</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79">
-        <v>0</v>
-      </c>
-      <c r="H4" s="84">
-        <f>SUM(B4:F4)-G4</f>
-        <v>18</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="D12" s="71">
+        <v>12</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="71">
+        <v>0</v>
+      </c>
+      <c r="J12" s="75">
+        <f>SUM(B12:H12)-I12</f>
         <v>24</v>
       </c>
-      <c r="B5" s="79">
-        <v>3</v>
-      </c>
-      <c r="C5" s="79">
+      <c r="K12" s="60"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="71">
+        <v>3</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="71">
+        <v>0</v>
+      </c>
+      <c r="J13" s="75">
+        <f>SUM(B13:H13)-I13</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="59"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71">
         <v>6</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D14" s="71">
         <v>6</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79">
-        <v>0</v>
-      </c>
-      <c r="H5" s="84">
-        <f>SUM(B5:F5)-G5</f>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="71">
+        <v>0</v>
+      </c>
+      <c r="J14" s="75">
+        <f>SUM(B14:H14)-I14</f>
+        <v>12</v>
+      </c>
+      <c r="K14" s="59"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="71">
+        <v>3</v>
+      </c>
+      <c r="C15" s="71">
+        <v>3</v>
+      </c>
+      <c r="D15" s="71">
+        <v>3</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="71">
+        <v>0</v>
+      </c>
+      <c r="J15" s="75">
+        <f>SUM(B15:H15)-I15</f>
+        <v>9</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="62"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71">
+        <v>6</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="71">
+        <v>0</v>
+      </c>
+      <c r="J16" s="75">
+        <f>SUM(B16:H16)-I16</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="71">
+        <v>3</v>
+      </c>
+      <c r="C17" s="71">
+        <v>6</v>
+      </c>
+      <c r="D17" s="71">
+        <v>6</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="71">
+        <v>0</v>
+      </c>
+      <c r="J17" s="75">
+        <f>SUM(B17:H17)-I17</f>
         <v>15</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="79">
-        <v>3</v>
-      </c>
-      <c r="C6" s="79">
+      <c r="K17" s="61"/>
+      <c r="L17" s="60"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="71">
+        <v>3</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="71">
+        <v>0</v>
+      </c>
+      <c r="J18" s="75">
+        <f>SUM(B18:H18)-I18</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="61"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71">
         <v>6</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79">
-        <v>0</v>
-      </c>
-      <c r="H6" s="84">
-        <f>SUM(B6:F6)-G6</f>
+      <c r="D19" s="71">
+        <v>6</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="71">
+        <v>0</v>
+      </c>
+      <c r="J19" s="75">
+        <f>SUM(B19:H19)-I19</f>
+        <v>12</v>
+      </c>
+      <c r="K19" s="61"/>
+    </row>
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="71">
+        <v>3</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="71">
+        <v>0</v>
+      </c>
+      <c r="J20" s="75">
+        <f>SUM(B20:H20)-I20</f>
+        <v>3</v>
+      </c>
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71">
+        <v>3</v>
+      </c>
+      <c r="D21" s="71">
+        <v>3</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="71">
+        <v>0</v>
+      </c>
+      <c r="J21" s="75">
+        <f>SUM(B21:H21)-I21</f>
+        <v>6</v>
+      </c>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="71">
+        <v>3</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="71">
+        <v>0</v>
+      </c>
+      <c r="J22" s="75">
+        <f>SUM(B22:H22)-I22</f>
+        <v>3</v>
+      </c>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71">
         <v>9</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79">
-        <v>3</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79">
-        <v>0</v>
-      </c>
-      <c r="H7" s="84">
-        <f>SUM(B7:F7)-G7</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79">
+      <c r="D23" s="71">
         <v>6</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79">
-        <v>0</v>
-      </c>
-      <c r="H8" s="84">
-        <f>SUM(B8:F8)-G8</f>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="71">
+        <v>0</v>
+      </c>
+      <c r="J23" s="75">
+        <f>SUM(B23:H23)-I23</f>
+        <v>15</v>
+      </c>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71">
+        <v>3</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="71">
+        <v>0</v>
+      </c>
+      <c r="J24" s="75">
+        <f>SUM(B24:H24)-I24</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71">
+        <v>3</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="71">
+        <v>0</v>
+      </c>
+      <c r="J25" s="75">
+        <f>SUM(B25:H25)-I25</f>
+        <v>3</v>
+      </c>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71">
+        <v>3</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="71">
+        <v>0</v>
+      </c>
+      <c r="J26" s="75">
+        <f>SUM(B26:H26)-I26</f>
+        <v>3</v>
+      </c>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71">
+        <v>3</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="71">
+        <v>0</v>
+      </c>
+      <c r="J27" s="75">
+        <f>SUM(B27:H27)-I27</f>
+        <v>3</v>
+      </c>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71">
+        <v>1</v>
+      </c>
+      <c r="D28" s="71">
+        <v>1</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="71">
+        <v>0</v>
+      </c>
+      <c r="J28" s="75">
+        <f>SUM(B28:H28)-I28</f>
+        <v>2</v>
+      </c>
+      <c r="K28" s="58"/>
+    </row>
+    <row r="29" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="71">
+        <v>3</v>
+      </c>
+      <c r="C29" s="71">
+        <v>12</v>
+      </c>
+      <c r="D29" s="71">
+        <v>27</v>
+      </c>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="71">
+        <v>0</v>
+      </c>
+      <c r="J29" s="75">
+        <f>SUM(B29:H29)-I29</f>
+        <v>42</v>
+      </c>
+      <c r="K29" s="58"/>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="71">
+        <v>3</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="71">
+        <v>0</v>
+      </c>
+      <c r="J30" s="75">
+        <f>SUM(B30:H30)-I30</f>
+        <v>3</v>
+      </c>
+      <c r="K30" s="58"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="71">
+        <v>3</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="71">
+        <v>0</v>
+      </c>
+      <c r="J31" s="75">
+        <f>SUM(B31:H31)-I31</f>
+        <v>3</v>
+      </c>
+      <c r="K31" s="58"/>
+    </row>
+    <row r="32" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="71">
         <v>6</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="66"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="79">
-        <v>3</v>
-      </c>
-      <c r="C9" s="79">
-        <v>18</v>
-      </c>
-      <c r="D9" s="79">
-        <v>48</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79">
-        <v>0</v>
-      </c>
-      <c r="H9" s="84">
-        <f>SUM(B9:F9)-G9</f>
-        <v>69</v>
-      </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="79">
-        <v>3</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79">
-        <v>0</v>
-      </c>
-      <c r="H10" s="84">
-        <f>SUM(B10:F10)-G10</f>
-        <v>3</v>
-      </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="79">
-        <v>3</v>
-      </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79">
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="71">
+        <v>0</v>
+      </c>
+      <c r="J32" s="75">
+        <f>SUM(B32:H32)-I32</f>
         <v>6</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79">
-        <v>0</v>
-      </c>
-      <c r="H11" s="84">
-        <f>SUM(B11:F11)-G11</f>
+      <c r="K32" s="61"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71">
+        <v>6</v>
+      </c>
+      <c r="D33" s="71">
+        <v>6</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="71">
+        <v>0</v>
+      </c>
+      <c r="J33" s="75">
+        <f>SUM(B33:H33)-I33</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71">
+        <v>3</v>
+      </c>
+      <c r="D34" s="71">
+        <v>3</v>
+      </c>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="71">
+        <v>0</v>
+      </c>
+      <c r="J34" s="75">
+        <f>SUM(B34:H34)-I34</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71">
+        <v>3</v>
+      </c>
+      <c r="D35" s="71">
+        <v>3</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="71">
+        <v>0</v>
+      </c>
+      <c r="J35" s="75">
+        <f>SUM(B35:H35)-I35</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="71"/>
+      <c r="C36" s="73">
+        <v>6</v>
+      </c>
+      <c r="D36" s="71">
         <v>9</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79">
-        <v>3</v>
-      </c>
-      <c r="D12" s="79">
-        <v>3</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79">
-        <v>0</v>
-      </c>
-      <c r="H12" s="84">
-        <f>SUM(B12:F12)-G12</f>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="71">
+        <v>0</v>
+      </c>
+      <c r="J36" s="75">
+        <f>SUM(B36:H36)-I36</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="73">
+        <v>3</v>
+      </c>
+      <c r="D37" s="71">
+        <v>3</v>
+      </c>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="71">
+        <v>0</v>
+      </c>
+      <c r="J37" s="75">
+        <f>SUM(B37:H37)-I37</f>
         <v>6</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79">
-        <v>12</v>
-      </c>
-      <c r="D13" s="79">
-        <v>12</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79">
-        <v>0</v>
-      </c>
-      <c r="H13" s="84">
-        <f>SUM(B13:F13)-G13</f>
-        <v>24</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="66"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="79">
-        <v>3</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79">
-        <v>0</v>
-      </c>
-      <c r="H14" s="84">
-        <f>SUM(B14:F14)-G14</f>
-        <v>3</v>
-      </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79">
+    </row>
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="71"/>
+      <c r="C38" s="73">
+        <v>3</v>
+      </c>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="71">
+        <v>0</v>
+      </c>
+      <c r="J38" s="75">
+        <f>SUM(B38:H38)-I38</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="71"/>
+      <c r="C39" s="73">
+        <v>3</v>
+      </c>
+      <c r="D39" s="71">
+        <v>3</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="71">
+        <v>0</v>
+      </c>
+      <c r="J39" s="75">
+        <f>SUM(B39:H39)-I39</f>
         <v>6</v>
       </c>
-      <c r="D15" s="79">
+    </row>
+    <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="73">
+        <v>3</v>
+      </c>
+      <c r="D40" s="71">
+        <v>3</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="71">
+        <v>0</v>
+      </c>
+      <c r="J40" s="75">
+        <f>SUM(B40:H40)-I40</f>
         <v>6</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79">
-        <v>0</v>
-      </c>
-      <c r="H15" s="84">
-        <f>SUM(B15:F15)-G15</f>
-        <v>12</v>
-      </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="65"/>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="79">
-        <v>3</v>
-      </c>
-      <c r="C16" s="79">
-        <v>3</v>
-      </c>
-      <c r="D16" s="79">
-        <v>3</v>
-      </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79">
-        <v>0</v>
-      </c>
-      <c r="H16" s="84">
-        <f>SUM(B16:F16)-G16</f>
-        <v>9</v>
-      </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79">
+    </row>
+    <row r="41" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="71"/>
+      <c r="C41" s="73">
+        <v>3</v>
+      </c>
+      <c r="D41" s="71">
+        <v>3</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="71">
+        <v>0</v>
+      </c>
+      <c r="J41" s="75">
+        <f>SUM(B41:H41)-I41</f>
         <v>6</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79">
-        <v>0</v>
-      </c>
-      <c r="H17" s="84">
-        <f>SUM(B17:F17)-G17</f>
-        <v>6</v>
-      </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="79">
-        <v>3</v>
-      </c>
-      <c r="C18" s="79">
-        <v>6</v>
-      </c>
-      <c r="D18" s="79">
-        <v>6</v>
-      </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79">
-        <v>0</v>
-      </c>
-      <c r="H18" s="84">
-        <f>SUM(B18:F18)-G18</f>
-        <v>15</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="79">
-        <v>3</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="84">
-        <f>SUM(B19:F19)-G19</f>
-        <v>3</v>
-      </c>
-      <c r="I19" s="67"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79">
-        <v>6</v>
-      </c>
-      <c r="D20" s="79">
-        <v>6</v>
-      </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79">
-        <v>0</v>
-      </c>
-      <c r="H20" s="84">
-        <f>SUM(B20:F20)-G20</f>
-        <v>12</v>
-      </c>
-      <c r="I20" s="67"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="79">
-        <v>3</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79">
-        <v>0</v>
-      </c>
-      <c r="H21" s="84">
-        <f>SUM(B21:F21)-G21</f>
-        <v>3</v>
-      </c>
-      <c r="I21" s="67"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79">
-        <v>3</v>
-      </c>
-      <c r="D22" s="79">
-        <v>3</v>
-      </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79">
-        <v>0</v>
-      </c>
-      <c r="H22" s="84">
-        <f>SUM(B22:F22)-G22</f>
-        <v>6</v>
-      </c>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="79">
-        <v>3</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79">
-        <v>0</v>
-      </c>
-      <c r="H23" s="84">
-        <f>SUM(B23:F23)-G23</f>
-        <v>3</v>
-      </c>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79">
-        <v>9</v>
-      </c>
-      <c r="D24" s="79">
-        <v>6</v>
-      </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79">
-        <v>0</v>
-      </c>
-      <c r="H24" s="84">
-        <f>SUM(B24:F24)-G24</f>
-        <v>15</v>
-      </c>
-      <c r="I24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79">
-        <v>3</v>
-      </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79">
-        <v>0</v>
-      </c>
-      <c r="H25" s="84">
-        <f>SUM(B25:F25)-G25</f>
-        <v>3</v>
-      </c>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79">
-        <v>3</v>
-      </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79">
-        <v>0</v>
-      </c>
-      <c r="H26" s="84">
-        <f>SUM(B26:F26)-G26</f>
-        <v>3</v>
-      </c>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79">
-        <v>3</v>
-      </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79">
-        <v>0</v>
-      </c>
-      <c r="H27" s="84">
-        <f>SUM(B27:F27)-G27</f>
-        <v>3</v>
-      </c>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79">
-        <v>3</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79">
-        <v>0</v>
-      </c>
-      <c r="H28" s="84">
-        <f>SUM(B28:F28)-G28</f>
-        <v>3</v>
-      </c>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79">
-        <v>1</v>
-      </c>
-      <c r="D29" s="79">
-        <v>1</v>
-      </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79">
-        <v>0</v>
-      </c>
-      <c r="H29" s="84">
-        <f>SUM(B29:F29)-G29</f>
-        <v>2</v>
-      </c>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="79">
-        <v>3</v>
-      </c>
-      <c r="C30" s="79">
-        <v>12</v>
-      </c>
-      <c r="D30" s="79">
-        <v>27</v>
-      </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79">
-        <v>0</v>
-      </c>
-      <c r="H30" s="84">
-        <f>SUM(B30:F30)-G30</f>
-        <v>42</v>
-      </c>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="79">
-        <v>3</v>
-      </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79">
-        <v>0</v>
-      </c>
-      <c r="H31" s="84">
-        <f>SUM(B31:F31)-G31</f>
-        <v>3</v>
-      </c>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="79">
-        <v>3</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79">
-        <v>0</v>
-      </c>
-      <c r="H32" s="84">
-        <f>SUM(B32:F32)-G32</f>
-        <v>3</v>
-      </c>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="79">
-        <v>6</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79">
-        <v>0</v>
-      </c>
-      <c r="H33" s="84">
-        <f>SUM(B33:F33)-G33</f>
-        <v>6</v>
-      </c>
-      <c r="I33" s="67"/>
-    </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79">
-        <v>6</v>
-      </c>
-      <c r="D34" s="79">
-        <v>6</v>
-      </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79">
-        <v>0</v>
-      </c>
-      <c r="H34" s="84">
-        <f>SUM(B34:F34)-G34</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79">
-        <v>3</v>
-      </c>
-      <c r="D35" s="79">
-        <v>3</v>
-      </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79">
-        <v>0</v>
-      </c>
-      <c r="H35" s="84">
-        <f>SUM(B35:F35)-G35</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79">
-        <v>3</v>
-      </c>
-      <c r="D36" s="79">
-        <v>3</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79">
-        <v>0</v>
-      </c>
-      <c r="H36" s="84">
-        <f>SUM(B36:F36)-G36</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="81">
-        <v>6</v>
-      </c>
-      <c r="D37" s="79">
-        <v>9</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79">
-        <v>0</v>
-      </c>
-      <c r="H37" s="84">
-        <f>SUM(B37:F37)-G37</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="81">
-        <v>3</v>
-      </c>
-      <c r="D38" s="79">
-        <v>3</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79">
-        <v>0</v>
-      </c>
-      <c r="H38" s="84">
-        <f>SUM(B38:F38)-G38</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="81">
-        <v>3</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79">
-        <v>0</v>
-      </c>
-      <c r="H39" s="84">
-        <f>SUM(B39:F39)-G39</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="81">
-        <v>3</v>
-      </c>
-      <c r="D40" s="79">
-        <v>3</v>
-      </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79">
-        <v>0</v>
-      </c>
-      <c r="H40" s="84">
-        <f>SUM(B40:F40)-G40</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="81">
-        <v>3</v>
-      </c>
-      <c r="D41" s="79">
-        <v>3</v>
-      </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79">
-        <v>0</v>
-      </c>
-      <c r="H41" s="84">
-        <f>SUM(B41:F41)-G41</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="81">
-        <v>3</v>
-      </c>
-      <c r="D42" s="79">
-        <v>3</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79">
-        <v>0</v>
-      </c>
-      <c r="H42" s="84">
-        <f>SUM(B42:F42)-G42</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="77" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="82">
-        <v>3</v>
-      </c>
-      <c r="D43" s="80">
-        <v>3</v>
-      </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80">
+      <c r="B42" s="72"/>
+      <c r="C42" s="74">
+        <v>3</v>
+      </c>
+      <c r="D42" s="72">
+        <v>3</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="72">
         <v>5</v>
       </c>
-      <c r="H43" s="85">
-        <f>SUM(B43:F43)-G43</f>
+      <c r="J42" s="76">
+        <f>SUM(B42:H42)-I42</f>
         <v>1</v>
       </c>
     </row>

--- a/EL_Electrical/Composant carte.xlsx
+++ b/EL_Electrical/Composant carte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timer" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="144">
   <si>
     <t>Composant</t>
   </si>
@@ -467,6 +467,39 @@
   </si>
   <si>
     <t>https://fr.farnell.com/panasonic/erj6rbd4701v/res-couche-epaisse-4-7k-0-5-0/dp/2380397RL</t>
+  </si>
+  <si>
+    <t>BP lumineux START</t>
+  </si>
+  <si>
+    <t>BP lumineux HOMING</t>
+  </si>
+  <si>
+    <t>BP NEUTRE</t>
+  </si>
+  <si>
+    <t>BP lumineux Launch</t>
+  </si>
+  <si>
+    <t>BP lumineux log MK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupteur bistable dpdt start </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupteur bistable dpdt traction </t>
+  </si>
+  <si>
+    <t>Interrupteur 2 position log</t>
+  </si>
+  <si>
+    <t>switch 4 positions</t>
+  </si>
+  <si>
+    <t>Bouton arrêt urgence</t>
+  </si>
+  <si>
+    <t>Screen</t>
   </si>
 </sst>
 </file>
@@ -2747,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4338,6 +4371,87 @@
         <f>Tableau24[[#This Row],[Prix HT]]*1.2*Tableau24[[#This Row],[Quantité achetée]]</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="26"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="44"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="43"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="43"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="26"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="26"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="26"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="26"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="26"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="26"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="26"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="26"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="27"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="26"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="26"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="26"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="26"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="26"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="26"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="27"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="29"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5687,12 +5801,12 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -5776,8 +5890,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5792,8 +5908,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5809,7 +5927,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5824,8 +5944,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5840,8 +5962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5856,8 +5980,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5872,8 +5998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5888,8 +6016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5905,7 +6035,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5920,8 +6052,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5937,7 +6071,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6156,7 +6292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6231,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="75">
-        <f>SUM(B2:H2)-I2</f>
+        <f t="shared" ref="J2:J42" si="0">SUM(B2:H2)-I2</f>
         <v>15</v>
       </c>
       <c r="K2" s="59"/>
@@ -6261,14 +6397,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="75">
-        <f>SUM(B3:H3)-I3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="62"/>
       <c r="M3" s="63"/>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
         <v>24</v>
       </c>
@@ -6293,14 +6429,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="75">
-        <f>SUM(B4:H4)-I4</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="62"/>
       <c r="M4" s="63"/>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>58</v>
       </c>
@@ -6323,14 +6459,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="75">
-        <f>SUM(B5:H5)-I5</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="62"/>
       <c r="M5" s="60"/>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
         <v>25</v>
       </c>
@@ -6351,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="75">
-        <f>SUM(B6:H6)-I6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K6" s="60"/>
@@ -6375,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="75">
-        <f>SUM(B7:H7)-I7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K7" s="59"/>
@@ -6403,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="75">
-        <f>SUM(B8:H8)-I8</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="K8" s="59"/>
@@ -6427,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="75">
-        <f>SUM(B9:H9)-I9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K9" s="58"/>
@@ -6453,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="75">
-        <f>SUM(B10:H10)-I10</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K10" s="59"/>
@@ -6479,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="75">
-        <f>SUM(B11:H11)-I11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K11" s="59"/>
@@ -6505,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="75">
-        <f>SUM(B12:H12)-I12</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K12" s="60"/>
@@ -6529,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="75">
-        <f>SUM(B13:H13)-I13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K13" s="59"/>
@@ -6554,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="75">
-        <f>SUM(B14:H14)-I14</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K14" s="59"/>
@@ -6582,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="75">
-        <f>SUM(B15:H15)-I15</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K15" s="59"/>
@@ -6605,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="75">
-        <f>SUM(B16:H16)-I16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K16" s="58"/>
@@ -6632,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="75">
-        <f>SUM(B17:H17)-I17</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="K17" s="61"/>
@@ -6655,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="75">
-        <f>SUM(B18:H18)-I18</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K18" s="61"/>
@@ -6679,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="75">
-        <f>SUM(B19:H19)-I19</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K19" s="61"/>
@@ -6701,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="75">
-        <f>SUM(B20:H20)-I20</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K20" s="61"/>
@@ -6725,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="75">
-        <f>SUM(B21:H21)-I21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K21" s="58"/>
@@ -6747,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="75">
-        <f>SUM(B22:H22)-I22</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K22" s="58"/>
@@ -6771,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="75">
-        <f>SUM(B23:H23)-I23</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="K23" s="59"/>
@@ -6793,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="75">
-        <f>SUM(B24:H24)-I24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K24" s="58"/>
@@ -6815,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="75">
-        <f>SUM(B25:H25)-I25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K25" s="58"/>
@@ -6837,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="75">
-        <f>SUM(B26:H26)-I26</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K26" s="58"/>
@@ -6859,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="75">
-        <f>SUM(B27:H27)-I27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K27" s="58"/>
@@ -6883,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="75">
-        <f>SUM(B28:H28)-I28</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K28" s="58"/>
@@ -6909,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="75">
-        <f>SUM(B29:H29)-I29</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="K29" s="58"/>
@@ -6931,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="75">
-        <f>SUM(B30:H30)-I30</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K30" s="58"/>
@@ -6953,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="75">
-        <f>SUM(B31:H31)-I31</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K31" s="58"/>
@@ -6975,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="75">
-        <f>SUM(B32:H32)-I32</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K32" s="61"/>
@@ -6999,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="75">
-        <f>SUM(B33:H33)-I33</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -7022,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="75">
-        <f>SUM(B34:H34)-I34</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7045,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="75">
-        <f>SUM(B35:H35)-I35</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7068,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="75">
-        <f>SUM(B36:H36)-I36</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -7091,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="75">
-        <f>SUM(B37:H37)-I37</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7112,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="75">
-        <f>SUM(B38:H38)-I38</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -7135,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="75">
-        <f>SUM(B39:H39)-I39</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7158,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="75">
-        <f>SUM(B40:H40)-I40</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7181,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="75">
-        <f>SUM(B41:H41)-I41</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -7204,7 +7340,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="76">
-        <f>SUM(B42:H42)-I42</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
